--- a/data/trans_bre/P2C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,9%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,09; 6,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,28%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 0,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 1,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,38; 0,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,16%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 2,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 1,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,83; 632,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,11; 313,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,6; 802,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>271,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,53%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 3,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 2,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 1,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 4,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,24 +993,24 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1000,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,35; 122,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,78; 101,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,26%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 5,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 0,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,37; 1,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,51; 14,77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,4</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>280,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,16%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 0,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 0,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 2,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,35; 2,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,53; 33,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>251,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,7%</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 0,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 2,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,99; 8,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,19 +1303,119 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,47; 20,67</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33,07%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>45,53%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-19,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 0,72</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 0,61</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 2,23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-45,44; 216,68</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; 185,9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-47,68; 98,53</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-59,36; 13,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2C_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Edad-trans_bre.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,09; 6,16</t>
+          <t>-43,32; 4,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,77</t>
+          <t>-1,95; 0,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,76</t>
+          <t>-1,46; 1,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,0</t>
+          <t>-1,96; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 0,32</t>
+          <t>-28,41; 0,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,12</t>
+          <t>-0,8; 2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,33</t>
+          <t>-1,76; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,39</t>
+          <t>-0,68; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,38</t>
+          <t>-4,95; 1,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,83; 632,13</t>
+          <t>-69,01; 778,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,11; 313,33</t>
+          <t>-78,71; 216,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 802,91</t>
+          <t>-51,87; 731,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,59</t>
+          <t>-0,31; 3,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,44</t>
+          <t>-0,72; 2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,07</t>
+          <t>-3,06; 1,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 4,58</t>
+          <t>-9,59; 4,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1000,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-88,35; 122,93</t>
+          <t>-88,39; 154,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,78; 101,14</t>
+          <t>-67,27; 85,23</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,96</t>
+          <t>1,34; 6,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,5</t>
+          <t>-4,91; 0,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 1,18</t>
+          <t>-19,79; 2,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 14,77</t>
+          <t>-74,52; 24,12</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,56</t>
+          <t>-2,0; 0,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,49</t>
+          <t>-1,95; 0,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,44</t>
+          <t>-0,32; 2,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 2,95</t>
+          <t>-35,4; 3,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-96,53; 33,02</t>
+          <t>-94,69; 27,76</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,68</t>
+          <t>-1,2; 0,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,54</t>
+          <t>-0,31; 2,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,17</t>
+          <t>-0,97; 1,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 8,48</t>
+          <t>-10,77; 8,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 20,67</t>
+          <t>-19,87; 21,55</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,72</t>
+          <t>-0,33; 0,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,0</t>
+          <t>-0,22; 0,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,61</t>
+          <t>-0,63; 0,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 2,23</t>
+          <t>-11,92; 1,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 216,68</t>
+          <t>-43,24; 243,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 185,9</t>
+          <t>-28,56; 187,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 98,53</t>
+          <t>-50,52; 101,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 13,75</t>
+          <t>-63,94; 10,82</t>
         </is>
       </c>
     </row>
